--- a/biology/Botanique/Velloziaceae/Velloziaceae.xlsx
+++ b/biology/Botanique/Velloziaceae/Velloziaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Velloziacées regroupe des plantes monocotylédones ; elle comprend 270 espèces réparties en 7 genres : Acanthochlamys, Aylethonia, Barbacenia, Barbaceniopsis, Burlemarxia, Vellozia, Xerophyta.
 Ce sont des plantes arborescentes, des arbustes ou des plantes herbacées pérennes, à division dichotomique, plus ou moins xérophytes, des régions tropicales d'Amérique du Sud, d'Afrique, de Madagascar et d'Arabie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Vellozia qui fut donné en l'honneur du botaniste brésilien Joaquim Vellozo de Miranda (1733-1815)[1],[2] premier disciple du naturaliste italien Domenico Agostino Vandelli (1732-1816). Miranda récolta de nombreuses spécimens de plantes lors d'un voyage d'exploration scientifique au Brésil entre 1779 et 1799 dans la région de Minas Gerais[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Vellozia qui fut donné en l'honneur du botaniste brésilien Joaquim Vellozo de Miranda (1733-1815), premier disciple du naturaliste italien Domenico Agostino Vandelli (1732-1816). Miranda récolta de nombreuses spécimens de plantes lors d'un voyage d'exploration scientifique au Brésil entre 1779 et 1799 dans la région de Minas Gerais.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place aujourd'hui cette famille dans l'ordre des Pandanales.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 Acanthochlamys (en) P.C.Kao (1980)
 Barbacenia Vand. (1796)
 Barbaceniopsis L.B.Sm. (1962)
@@ -584,7 +602,7 @@
 Talbotia (en) Balf. (1868)
 Vellozia Vand. (1788)
 Xerophyta (en) Juss. (1789)
-Selon Angiosperm Phylogeny Website                        (17 mai 2010)[5] et NCBI  (15 avr. 2010)[6] :
+Selon Angiosperm Phylogeny Website                        (17 mai 2010) et NCBI  (15 avr. 2010) :
 Acanthochlamys
 Aylthonia
 Barbacenia
@@ -595,7 +613,7 @@
 Talbotia
 Vellozia
 Xerophyta
-Selon DELTA Angio           (15 avr. 2010)[7] :
+Selon DELTA Angio           (15 avr. 2010) :
 Acanthochlamys
 Aylethonia
 Barbacenia
@@ -630,9 +648,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 genre Acanthochlamys  P.C.Kao (1980)
 Acanthochlamys bracteata  P.C.Kao (1980)
 genre Barbacenia  Vand. (1796)
@@ -934,7 +954,7 @@
 Xerophyta villosa  (Baker) L.B.Sm. &amp; Ayensu (1974)
 Xerophyta viscosa  Baker (1875)
 Xerophyta zambiana  L.B.Sm. &amp; Ayensu (1974)
-Selon NCBI  (15 avr. 2010)[6] :
+Selon NCBI  (15 avr. 2010) :
 genre Acanthochlamys
 Acanthochlamys bracteata
 genre Aylthonia
